--- a/leet_questions.xlsx
+++ b/leet_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Documents/PycharmProjects/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B184AE1-C657-1248-928C-AA122443D57D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55AC708-3003-1F4F-BB82-684339F79D55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56060" yWindow="500" windowWidth="29020" windowHeight="21100" xr2:uid="{6494FC7B-E176-1246-80FA-A19190C52CC5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="60">
   <si>
     <t>No.</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>dfs/recursive</t>
+  </si>
+  <si>
+    <t>diameter of binary tree</t>
   </si>
 </sst>
 </file>
@@ -598,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0133E33A-35EB-C641-A01A-836B9FBF889B}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1279,6 +1282,38 @@
         <v>22</v>
       </c>
     </row>
+    <row r="23" spans="1:13" ht="34">
+      <c r="A23" s="1">
+        <v>543</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45200</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leet_questions.xlsx
+++ b/leet_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Documents/PycharmProjects/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55AC708-3003-1F4F-BB82-684339F79D55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48CB93A-52FB-C64A-A7B6-A85B62DDBB8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56060" yWindow="500" windowWidth="29020" windowHeight="21100" xr2:uid="{6494FC7B-E176-1246-80FA-A19190C52CC5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
   <si>
     <t>No.</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>diameter of binary tree</t>
+  </si>
+  <si>
+    <t>balanced binary tree</t>
   </si>
 </sst>
 </file>
@@ -601,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0133E33A-35EB-C641-A01A-836B9FBF889B}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1314,6 +1317,38 @@
         <v>22</v>
       </c>
     </row>
+    <row r="24" spans="1:13" ht="17">
+      <c r="A24" s="1">
+        <v>110</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45200</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leet_questions.xlsx
+++ b/leet_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Documents/PycharmProjects/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48CB93A-52FB-C64A-A7B6-A85B62DDBB8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81B426B-B2CF-4D45-A83C-2D2CBDD09A47}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56060" yWindow="500" windowWidth="29020" windowHeight="21100" xr2:uid="{6494FC7B-E176-1246-80FA-A19190C52CC5}"/>
+    <workbookView xWindow="56560" yWindow="500" windowWidth="29020" windowHeight="21100" xr2:uid="{6494FC7B-E176-1246-80FA-A19190C52CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="practice" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
   <si>
     <t>No.</t>
   </si>
@@ -208,6 +208,30 @@
   </si>
   <si>
     <t>balanced binary tree</t>
+  </si>
+  <si>
+    <t>top k frequent elements</t>
+  </si>
+  <si>
+    <t>search insert position</t>
+  </si>
+  <si>
+    <t>length of last word</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>Counter/max heap</t>
+  </si>
+  <si>
+    <t>product of array except self</t>
+  </si>
+  <si>
+    <t>plus_one</t>
+  </si>
+  <si>
+    <t>add binary</t>
   </si>
 </sst>
 </file>
@@ -604,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0133E33A-35EB-C641-A01A-836B9FBF889B}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -619,7 +643,7 @@
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
@@ -1349,6 +1373,159 @@
         <v>22</v>
       </c>
     </row>
+    <row r="25" spans="1:13" ht="34">
+      <c r="A25" s="1">
+        <v>347</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45201</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17">
+      <c r="A26" s="1">
+        <v>35</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45200</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17">
+      <c r="A27" s="1">
+        <v>58</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6">
+        <v>45201</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="34">
+      <c r="A28" s="1">
+        <v>238</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45201</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17">
+      <c r="A29" s="1">
+        <v>66</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45209</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6">
+        <v>45209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leet_questions.xlsx
+++ b/leet_questions.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Documents/PycharmProjects/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Documents/PycharmProjects/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81B426B-B2CF-4D45-A83C-2D2CBDD09A47}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AD0BF8-2B09-7641-B5A9-EA10B05407A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56560" yWindow="500" windowWidth="29020" windowHeight="21100" xr2:uid="{6494FC7B-E176-1246-80FA-A19190C52CC5}"/>
+    <workbookView xWindow="44760" yWindow="500" windowWidth="32100" windowHeight="21100" xr2:uid="{6494FC7B-E176-1246-80FA-A19190C52CC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="practice" sheetId="1" r:id="rId1"/>
+    <sheet name="leetcode" sheetId="1" r:id="rId1"/>
+    <sheet name="cracking the coding interview" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="76">
   <si>
     <t>No.</t>
   </si>
@@ -232,6 +233,27 @@
   </si>
   <si>
     <t>add binary</t>
+  </si>
+  <si>
+    <t>is_unique</t>
+  </si>
+  <si>
+    <t>array/strings</t>
+  </si>
+  <si>
+    <t>check permutation</t>
+  </si>
+  <si>
+    <t>permutations</t>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t>O(n * n!)</t>
+  </si>
+  <si>
+    <t>recursive</t>
   </si>
 </sst>
 </file>
@@ -288,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +336,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0133E33A-35EB-C641-A01A-836B9FBF889B}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1526,6 +1549,867 @@
         <v>45209</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="17">
+      <c r="A31" s="1">
+        <v>46</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="6">
+        <v>45211</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189899C0-1422-2A42-A391-202CE1972FFE}">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="9"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45211</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="51">
+      <c r="A3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45211</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leet_questions.xlsx
+++ b/leet_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Documents/PycharmProjects/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AD0BF8-2B09-7641-B5A9-EA10B05407A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C161FA2-8C81-FB49-BB35-A1B523F0EDA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44760" yWindow="500" windowWidth="32100" windowHeight="21100" xr2:uid="{6494FC7B-E176-1246-80FA-A19190C52CC5}"/>
+    <workbookView xWindow="2460" yWindow="760" windowWidth="32100" windowHeight="21100" activeTab="1" xr2:uid="{6494FC7B-E176-1246-80FA-A19190C52CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="78">
   <si>
     <t>No.</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>recursive</t>
+  </si>
+  <si>
+    <t>urlify</t>
+  </si>
+  <si>
+    <t>one away</t>
   </si>
 </sst>
 </file>
@@ -653,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0133E33A-35EB-C641-A01A-836B9FBF889B}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -1591,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189899C0-1422-2A42-A391-202CE1972FFE}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1727,13 +1733,27 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45211</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1745,13 +1765,27 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45220</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>

--- a/leet_questions.xlsx
+++ b/leet_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Documents/PycharmProjects/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C161FA2-8C81-FB49-BB35-A1B523F0EDA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA918108-215A-944D-938F-EE6A8803D303}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="760" windowWidth="32100" windowHeight="21100" activeTab="1" xr2:uid="{6494FC7B-E176-1246-80FA-A19190C52CC5}"/>
+    <workbookView xWindow="2640" yWindow="860" windowWidth="32100" windowHeight="21100" xr2:uid="{6494FC7B-E176-1246-80FA-A19190C52CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="80">
   <si>
     <t>No.</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>one away</t>
+  </si>
+  <si>
+    <t>climbing stairs</t>
+  </si>
+  <si>
+    <t>dynamic programming</t>
   </si>
 </sst>
 </file>
@@ -657,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0133E33A-35EB-C641-A01A-836B9FBF889B}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1588,6 +1594,38 @@
         <v>75</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="17">
+      <c r="A32" s="1">
+        <v>70</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>45221</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1597,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189899C0-1422-2A42-A391-202CE1972FFE}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/leet_questions.xlsx
+++ b/leet_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Documents/PycharmProjects/interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA918108-215A-944D-938F-EE6A8803D303}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E887BB-54BB-2D4F-A6CB-19389FCEE626}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="860" windowWidth="32100" windowHeight="21100" xr2:uid="{6494FC7B-E176-1246-80FA-A19190C52CC5}"/>
+    <workbookView xWindow="2460" yWindow="860" windowWidth="32100" windowHeight="21100" activeTab="1" xr2:uid="{6494FC7B-E176-1246-80FA-A19190C52CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="82">
   <si>
     <t>No.</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>dynamic programming</t>
+  </si>
+  <si>
+    <t>remove duplicate</t>
+  </si>
+  <si>
+    <t>linkedlist</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0133E33A-35EB-C641-A01A-836B9FBF889B}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -1635,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189899C0-1422-2A42-A391-202CE1972FFE}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1834,17 +1840,37 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+    <row r="6" spans="1:16" ht="34">
+      <c r="A6" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45221</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
